--- a/Ver2/Notion data/Chấm công LONG XUYÊN.xlsx
+++ b/Ver2/Notion data/Chấm công LONG XUYÊN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GH21"/>
+  <dimension ref="A1:GK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,60 +1326,75 @@
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 24.select.id</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.name</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.color</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 17.select.id</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.name</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.color</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.id</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.name</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.color</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.id</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.name</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.color</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.id</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.name</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.color</t>
         </is>
@@ -1393,17 +1408,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9834ce79-f5b4-4dae-adec-c0a1a8eec1c9</t>
+          <t>5c093ee0-51c4-41d9-bc90-d9cacaafde1d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-20T02:02:00.000Z</t>
+          <t>2024-07-24T15:26:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-20T02:02:00.000Z</t>
+          <t>2024-07-24T15:26:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1416,7 +1431,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9834ce79f5b44daeadecc0a1a8eec1c9</t>
+          <t>https://www.notion.so/5c093ee051c441d9bc90d9cacaafde1d</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -1427,7 +1442,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1437,7 +1452,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1550,7 +1565,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'id': '3db76400-46c0-4adb-9d9c-51542f2de2f9'}]</t>
         </is>
       </c>
       <c r="AR2" t="b">
@@ -1815,7 +1830,7 @@
       </c>
       <c r="DJ2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK2" t="inlineStr">
@@ -1918,6 +1933,9 @@
       <c r="GF2" t="inlineStr"/>
       <c r="GG2" t="inlineStr"/>
       <c r="GH2" t="inlineStr"/>
+      <c r="GI2" t="inlineStr"/>
+      <c r="GJ2" t="inlineStr"/>
+      <c r="GK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1927,17 +1945,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3aedf66b-b456-4347-97ae-48e4b235c4b5</t>
+          <t>deea2d8f-0238-4305-abda-713ad39ec13d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-24T15:25:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-24T15:25:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1950,7 +1968,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3aedf66bb456434797ae48e4b235c4b5</t>
+          <t>https://www.notion.so/deea2d8f02384305abda713ad39ec13d</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -2084,7 +2102,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
+          <t>[{'id': '35f44955-2223-488a-8274-8db6f726d9f7'}]</t>
         </is>
       </c>
       <c r="AR3" t="b">
@@ -2452,6 +2470,9 @@
       <c r="GF3" t="inlineStr"/>
       <c r="GG3" t="inlineStr"/>
       <c r="GH3" t="inlineStr"/>
+      <c r="GI3" t="inlineStr"/>
+      <c r="GJ3" t="inlineStr"/>
+      <c r="GK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2461,17 +2482,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d115d1c1-34eb-4069-bcb8-dc971095f8ad</t>
+          <t>3aedf66b-b456-4347-97ae-48e4b235c4b5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-08T16:51:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-08T16:51:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2484,7 +2505,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/d115d1c134eb4069bcb8dc971095f8ad</t>
+          <t>https://www.notion.so/3aedf66bb456434797ae48e4b235c4b5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -2618,7 +2639,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
+          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
         </is>
       </c>
       <c r="AR4" t="b">
@@ -2883,7 +2904,7 @@
       </c>
       <c r="DJ4" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK4" t="inlineStr">
@@ -2986,6 +3007,9 @@
       <c r="GF4" t="inlineStr"/>
       <c r="GG4" t="inlineStr"/>
       <c r="GH4" t="inlineStr"/>
+      <c r="GI4" t="inlineStr"/>
+      <c r="GJ4" t="inlineStr"/>
+      <c r="GK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2995,7 +3019,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0747fb62-070a-47a3-9845-8966722bfb2e</t>
+          <t>d115d1c1-34eb-4069-bcb8-dc971095f8ad</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3018,7 +3042,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/0747fb62070a47a398458966722bfb2e</t>
+          <t>https://www.notion.so/d115d1c134eb4069bcb8dc971095f8ad</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -3152,7 +3176,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
+          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
         </is>
       </c>
       <c r="AR5" t="b">
@@ -3417,7 +3441,7 @@
       </c>
       <c r="DJ5" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK5" t="inlineStr">
@@ -3520,6 +3544,9 @@
       <c r="GF5" t="inlineStr"/>
       <c r="GG5" t="inlineStr"/>
       <c r="GH5" t="inlineStr"/>
+      <c r="GI5" t="inlineStr"/>
+      <c r="GJ5" t="inlineStr"/>
+      <c r="GK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3529,7 +3556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ec6fbb96-6288-476f-abc2-c605f8c77bd9</t>
+          <t>0747fb62-070a-47a3-9845-8966722bfb2e</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3552,7 +3579,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ec6fbb966288476fabc2c605f8c77bd9</t>
+          <t>https://www.notion.so/0747fb62070a47a398458966722bfb2e</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -3686,7 +3713,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
+          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
         </is>
       </c>
       <c r="AR6" t="b">
@@ -4054,6 +4081,9 @@
       <c r="GF6" t="inlineStr"/>
       <c r="GG6" t="inlineStr"/>
       <c r="GH6" t="inlineStr"/>
+      <c r="GI6" t="inlineStr"/>
+      <c r="GJ6" t="inlineStr"/>
+      <c r="GK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4063,7 +4093,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a9b33b68-44f7-49f9-a755-95267817e2da</t>
+          <t>ec6fbb96-6288-476f-abc2-c605f8c77bd9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4086,7 +4116,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/a9b33b6844f749f9a75595267817e2da</t>
+          <t>https://www.notion.so/ec6fbb966288476fabc2c605f8c77bd9</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -4220,7 +4250,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
+          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
         </is>
       </c>
       <c r="AR7" t="b">
@@ -4485,7 +4515,7 @@
       </c>
       <c r="DJ7" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK7" t="inlineStr">
@@ -4588,6 +4618,9 @@
       <c r="GF7" t="inlineStr"/>
       <c r="GG7" t="inlineStr"/>
       <c r="GH7" t="inlineStr"/>
+      <c r="GI7" t="inlineStr"/>
+      <c r="GJ7" t="inlineStr"/>
+      <c r="GK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4597,7 +4630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>082171a8-ab69-40a0-b22c-8146386dfd7e</t>
+          <t>a9b33b68-44f7-49f9-a755-95267817e2da</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4620,7 +4653,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/082171a8ab6940a0b22c8146386dfd7e</t>
+          <t>https://www.notion.so/a9b33b6844f749f9a75595267817e2da</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -4754,7 +4787,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
+          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
         </is>
       </c>
       <c r="AR8" t="b">
@@ -5019,7 +5052,7 @@
       </c>
       <c r="DJ8" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK8" t="inlineStr">
@@ -5122,6 +5155,9 @@
       <c r="GF8" t="inlineStr"/>
       <c r="GG8" t="inlineStr"/>
       <c r="GH8" t="inlineStr"/>
+      <c r="GI8" t="inlineStr"/>
+      <c r="GJ8" t="inlineStr"/>
+      <c r="GK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5131,17 +5167,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>67db7df7-e666-4013-9a95-fb6193d882c4</t>
+          <t>082171a8-ab69-40a0-b22c-8146386dfd7e</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:51:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-23T09:46:00.000Z</t>
+          <t>2024-07-08T16:51:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -5154,7 +5190,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67db7df7e66640139a95fb6193d882c4</t>
+          <t>https://www.notion.so/082171a8ab6940a0b22c8146386dfd7e</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -5175,7 +5211,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -5288,7 +5324,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
+          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
         </is>
       </c>
       <c r="AR9" t="b">
@@ -5553,7 +5589,7 @@
       </c>
       <c r="DJ9" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK9" t="inlineStr">
@@ -5587,351 +5623,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY9" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="EZ9" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="FA9" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="FB9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FW9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FX9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FY9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FZ9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="GC9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GD9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GE9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="GF9" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GG9" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GH9" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR9" t="inlineStr"/>
+      <c r="DS9" t="inlineStr"/>
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="inlineStr"/>
+      <c r="DV9" t="inlineStr"/>
+      <c r="DW9" t="inlineStr"/>
+      <c r="DX9" t="inlineStr"/>
+      <c r="DY9" t="inlineStr"/>
+      <c r="DZ9" t="inlineStr"/>
+      <c r="EA9" t="inlineStr"/>
+      <c r="EB9" t="inlineStr"/>
+      <c r="EC9" t="inlineStr"/>
+      <c r="ED9" t="inlineStr"/>
+      <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr"/>
+      <c r="EG9" t="inlineStr"/>
+      <c r="EH9" t="inlineStr"/>
+      <c r="EI9" t="inlineStr"/>
+      <c r="EJ9" t="inlineStr"/>
+      <c r="EK9" t="inlineStr"/>
+      <c r="EL9" t="inlineStr"/>
+      <c r="EM9" t="inlineStr"/>
+      <c r="EN9" t="inlineStr"/>
+      <c r="EO9" t="inlineStr"/>
+      <c r="EP9" t="inlineStr"/>
+      <c r="EQ9" t="inlineStr"/>
+      <c r="ER9" t="inlineStr"/>
+      <c r="ES9" t="inlineStr"/>
+      <c r="ET9" t="inlineStr"/>
+      <c r="EU9" t="inlineStr"/>
+      <c r="EV9" t="inlineStr"/>
+      <c r="EW9" t="inlineStr"/>
+      <c r="EX9" t="inlineStr"/>
+      <c r="EY9" t="inlineStr"/>
+      <c r="EZ9" t="inlineStr"/>
+      <c r="FA9" t="inlineStr"/>
+      <c r="FB9" t="inlineStr"/>
+      <c r="FC9" t="inlineStr"/>
+      <c r="FD9" t="inlineStr"/>
+      <c r="FE9" t="inlineStr"/>
+      <c r="FF9" t="inlineStr"/>
+      <c r="FG9" t="inlineStr"/>
+      <c r="FH9" t="inlineStr"/>
+      <c r="FI9" t="inlineStr"/>
+      <c r="FJ9" t="inlineStr"/>
+      <c r="FK9" t="inlineStr"/>
+      <c r="FL9" t="inlineStr"/>
+      <c r="FM9" t="inlineStr"/>
+      <c r="FN9" t="inlineStr"/>
+      <c r="FO9" t="inlineStr"/>
+      <c r="FP9" t="inlineStr"/>
+      <c r="FQ9" t="inlineStr"/>
+      <c r="FR9" t="inlineStr"/>
+      <c r="FS9" t="inlineStr"/>
+      <c r="FT9" t="inlineStr"/>
+      <c r="FU9" t="inlineStr"/>
+      <c r="FV9" t="inlineStr"/>
+      <c r="FW9" t="inlineStr"/>
+      <c r="FX9" t="inlineStr"/>
+      <c r="FY9" t="inlineStr"/>
+      <c r="FZ9" t="inlineStr"/>
+      <c r="GA9" t="inlineStr"/>
+      <c r="GB9" t="inlineStr"/>
+      <c r="GC9" t="inlineStr"/>
+      <c r="GD9" t="inlineStr"/>
+      <c r="GE9" t="inlineStr"/>
+      <c r="GF9" t="inlineStr"/>
+      <c r="GG9" t="inlineStr"/>
+      <c r="GH9" t="inlineStr"/>
+      <c r="GI9" t="inlineStr"/>
+      <c r="GJ9" t="inlineStr"/>
+      <c r="GK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5941,17 +5704,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>039bd091-4e1b-48d9-8b07-59422db15f26</t>
+          <t>67db7df7-e666-4013-9a95-fb6193d882c4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-24T10:30:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -5964,7 +5727,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/039bd0914e1b48d98b0759422db15f26</t>
+          <t>https://www.notion.so/67db7df7e66640139a95fb6193d882c4</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -5985,7 +5748,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -6098,7 +5861,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
+          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
         </is>
       </c>
       <c r="AR10" t="b">
@@ -6363,7 +6126,7 @@
       </c>
       <c r="DJ10" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK10" t="inlineStr">
@@ -6397,75 +6160,366 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR10" t="inlineStr"/>
-      <c r="DS10" t="inlineStr"/>
-      <c r="DT10" t="inlineStr"/>
-      <c r="DU10" t="inlineStr"/>
-      <c r="DV10" t="inlineStr"/>
-      <c r="DW10" t="inlineStr"/>
-      <c r="DX10" t="inlineStr"/>
-      <c r="DY10" t="inlineStr"/>
-      <c r="DZ10" t="inlineStr"/>
-      <c r="EA10" t="inlineStr"/>
-      <c r="EB10" t="inlineStr"/>
-      <c r="EC10" t="inlineStr"/>
-      <c r="ED10" t="inlineStr"/>
-      <c r="EE10" t="inlineStr"/>
-      <c r="EF10" t="inlineStr"/>
-      <c r="EG10" t="inlineStr"/>
-      <c r="EH10" t="inlineStr"/>
-      <c r="EI10" t="inlineStr"/>
-      <c r="EJ10" t="inlineStr"/>
-      <c r="EK10" t="inlineStr"/>
-      <c r="EL10" t="inlineStr"/>
-      <c r="EM10" t="inlineStr"/>
-      <c r="EN10" t="inlineStr"/>
-      <c r="EO10" t="inlineStr"/>
-      <c r="EP10" t="inlineStr"/>
-      <c r="EQ10" t="inlineStr"/>
-      <c r="ER10" t="inlineStr"/>
-      <c r="ES10" t="inlineStr"/>
-      <c r="ET10" t="inlineStr"/>
-      <c r="EU10" t="inlineStr"/>
-      <c r="EV10" t="inlineStr"/>
-      <c r="EW10" t="inlineStr"/>
-      <c r="EX10" t="inlineStr"/>
-      <c r="EY10" t="inlineStr"/>
-      <c r="EZ10" t="inlineStr"/>
-      <c r="FA10" t="inlineStr"/>
-      <c r="FB10" t="inlineStr"/>
-      <c r="FC10" t="inlineStr"/>
-      <c r="FD10" t="inlineStr"/>
-      <c r="FE10" t="inlineStr"/>
-      <c r="FF10" t="inlineStr"/>
-      <c r="FG10" t="inlineStr"/>
-      <c r="FH10" t="inlineStr"/>
-      <c r="FI10" t="inlineStr"/>
-      <c r="FJ10" t="inlineStr"/>
-      <c r="FK10" t="inlineStr"/>
-      <c r="FL10" t="inlineStr"/>
-      <c r="FM10" t="inlineStr"/>
-      <c r="FN10" t="inlineStr"/>
-      <c r="FO10" t="inlineStr"/>
-      <c r="FP10" t="inlineStr"/>
-      <c r="FQ10" t="inlineStr"/>
-      <c r="FR10" t="inlineStr"/>
-      <c r="FS10" t="inlineStr"/>
-      <c r="FT10" t="inlineStr"/>
-      <c r="FU10" t="inlineStr"/>
-      <c r="FV10" t="inlineStr"/>
-      <c r="FW10" t="inlineStr"/>
-      <c r="FX10" t="inlineStr"/>
-      <c r="FY10" t="inlineStr"/>
-      <c r="FZ10" t="inlineStr"/>
-      <c r="GA10" t="inlineStr"/>
-      <c r="GB10" t="inlineStr"/>
-      <c r="GC10" t="inlineStr"/>
-      <c r="GD10" t="inlineStr"/>
-      <c r="GE10" t="inlineStr"/>
-      <c r="GF10" t="inlineStr"/>
-      <c r="GG10" t="inlineStr"/>
-      <c r="GH10" t="inlineStr"/>
+      <c r="DR10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY10" t="inlineStr">
+        <is>
+          <t>VRLp</t>
+        </is>
+      </c>
+      <c r="EZ10" t="inlineStr">
+        <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="FA10" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="FB10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI10" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ10" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK10" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6475,7 +6529,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14bd8477-ff03-4967-a053-6642a8640c0d</t>
+          <t>039bd091-4e1b-48d9-8b07-59422db15f26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6498,7 +6552,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14bd8477ff034967a0536642a8640c0d</t>
+          <t>https://www.notion.so/039bd0914e1b48d98b0759422db15f26</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -6632,7 +6686,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
+          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
         </is>
       </c>
       <c r="AR11" t="b">
@@ -7000,6 +7054,9 @@
       <c r="GF11" t="inlineStr"/>
       <c r="GG11" t="inlineStr"/>
       <c r="GH11" t="inlineStr"/>
+      <c r="GI11" t="inlineStr"/>
+      <c r="GJ11" t="inlineStr"/>
+      <c r="GK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7009,7 +7066,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3525a79c-1a86-4907-afbc-e7143db1cde1</t>
+          <t>14bd8477-ff03-4967-a053-6642a8640c0d</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7032,7 +7089,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3525a79c1a864907afbce7143db1cde1</t>
+          <t>https://www.notion.so/14bd8477ff034967a0536642a8640c0d</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -7166,7 +7223,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
+          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
         </is>
       </c>
       <c r="AR12" t="b">
@@ -7534,6 +7591,9 @@
       <c r="GF12" t="inlineStr"/>
       <c r="GG12" t="inlineStr"/>
       <c r="GH12" t="inlineStr"/>
+      <c r="GI12" t="inlineStr"/>
+      <c r="GJ12" t="inlineStr"/>
+      <c r="GK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7543,7 +7603,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>573d5bec-3710-4734-8576-78480675e709</t>
+          <t>3525a79c-1a86-4907-afbc-e7143db1cde1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7553,7 +7613,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-23T09:45:00.000Z</t>
+          <t>2024-07-02T18:02:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -7566,7 +7626,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/573d5bec37104734857678480675e709</t>
+          <t>https://www.notion.so/3525a79c1a864907afbce7143db1cde1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -7587,7 +7647,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7700,7 +7760,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
+          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
         </is>
       </c>
       <c r="AR13" t="b">
@@ -7965,7 +8025,7 @@
       </c>
       <c r="DJ13" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK13" t="inlineStr">
@@ -7999,351 +8059,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV13" t="inlineStr">
-        <is>
-          <t>Qspr</t>
-        </is>
-      </c>
-      <c r="EW13" t="inlineStr">
-        <is>
-          <t>Nửa ngày</t>
-        </is>
-      </c>
-      <c r="EX13" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="EY13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FW13" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="FX13" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="FY13" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="FZ13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="GC13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GD13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GE13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="GF13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GG13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GH13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr"/>
+      <c r="DW13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="inlineStr"/>
+      <c r="EU13" t="inlineStr"/>
+      <c r="EV13" t="inlineStr"/>
+      <c r="EW13" t="inlineStr"/>
+      <c r="EX13" t="inlineStr"/>
+      <c r="EY13" t="inlineStr"/>
+      <c r="EZ13" t="inlineStr"/>
+      <c r="FA13" t="inlineStr"/>
+      <c r="FB13" t="inlineStr"/>
+      <c r="FC13" t="inlineStr"/>
+      <c r="FD13" t="inlineStr"/>
+      <c r="FE13" t="inlineStr"/>
+      <c r="FF13" t="inlineStr"/>
+      <c r="FG13" t="inlineStr"/>
+      <c r="FH13" t="inlineStr"/>
+      <c r="FI13" t="inlineStr"/>
+      <c r="FJ13" t="inlineStr"/>
+      <c r="FK13" t="inlineStr"/>
+      <c r="FL13" t="inlineStr"/>
+      <c r="FM13" t="inlineStr"/>
+      <c r="FN13" t="inlineStr"/>
+      <c r="FO13" t="inlineStr"/>
+      <c r="FP13" t="inlineStr"/>
+      <c r="FQ13" t="inlineStr"/>
+      <c r="FR13" t="inlineStr"/>
+      <c r="FS13" t="inlineStr"/>
+      <c r="FT13" t="inlineStr"/>
+      <c r="FU13" t="inlineStr"/>
+      <c r="FV13" t="inlineStr"/>
+      <c r="FW13" t="inlineStr"/>
+      <c r="FX13" t="inlineStr"/>
+      <c r="FY13" t="inlineStr"/>
+      <c r="FZ13" t="inlineStr"/>
+      <c r="GA13" t="inlineStr"/>
+      <c r="GB13" t="inlineStr"/>
+      <c r="GC13" t="inlineStr"/>
+      <c r="GD13" t="inlineStr"/>
+      <c r="GE13" t="inlineStr"/>
+      <c r="GF13" t="inlineStr"/>
+      <c r="GG13" t="inlineStr"/>
+      <c r="GH13" t="inlineStr"/>
+      <c r="GI13" t="inlineStr"/>
+      <c r="GJ13" t="inlineStr"/>
+      <c r="GK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8353,7 +8140,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>671720b3-96d1-4d6b-9a74-8d57582dd948</t>
+          <t>573d5bec-3710-4734-8576-78480675e709</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8363,7 +8150,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-23T09:45:00.000Z</t>
+          <t>2024-07-24T10:30:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -8376,7 +8163,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/671720b396d14d6b9a748d57582dd948</t>
+          <t>https://www.notion.so/573d5bec37104734857678480675e709</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -8510,7 +8297,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
+          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
         </is>
       </c>
       <c r="AR14" t="b">
@@ -8961,94 +8748,94 @@
       </c>
       <c r="EV14" t="inlineStr">
         <is>
+          <t>Qspr</t>
+        </is>
+      </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="EY14" t="inlineStr">
+        <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EW14" t="inlineStr">
+      <c r="EZ14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EX14" t="inlineStr">
+      <c r="FA14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EY14" t="inlineStr">
+      <c r="FB14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EZ14" t="inlineStr">
+      <c r="FC14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FA14" t="inlineStr">
+      <c r="FD14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FB14" t="inlineStr">
+      <c r="FE14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FC14" t="inlineStr">
+      <c r="FF14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FD14" t="inlineStr">
+      <c r="FG14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FE14" t="inlineStr">
+      <c r="FH14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FF14" t="inlineStr">
+      <c r="FI14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FG14" t="inlineStr">
+      <c r="FJ14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FH14" t="inlineStr">
+      <c r="FK14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI14" t="inlineStr">
+      <c r="FL14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ14" t="inlineStr">
+      <c r="FM14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK14" t="inlineStr">
-        <is>
-          <t>xQp=</t>
-        </is>
-      </c>
-      <c r="FL14" t="inlineStr">
-        <is>
-          <t>Nửa ngày</t>
-        </is>
-      </c>
-      <c r="FM14" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
       <c r="FN14" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -9111,45 +8898,60 @@
       </c>
       <c r="FZ14" t="inlineStr">
         <is>
+          <t>VRLp</t>
+        </is>
+      </c>
+      <c r="GA14" t="inlineStr">
+        <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="GB14" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="GC14" t="inlineStr">
+        <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="GA14" t="inlineStr">
+      <c r="GD14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="GB14" t="inlineStr">
+      <c r="GE14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="GC14" t="inlineStr">
+      <c r="GF14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="GD14" t="inlineStr">
+      <c r="GG14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="GE14" t="inlineStr">
+      <c r="GH14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="GF14" t="inlineStr">
+      <c r="GI14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="GG14" t="inlineStr">
+      <c r="GJ14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="GH14" t="inlineStr">
+      <c r="GK14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -9163,7 +8965,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>b6c770d0-bb31-4e81-9bb1-58097d2fa0a7</t>
+          <t>671720b3-96d1-4d6b-9a74-8d57582dd948</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9173,7 +8975,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-21T10:38:00.000Z</t>
+          <t>2024-07-24T10:30:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -9186,7 +8988,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/b6c770d0bb314e819bb158097d2fa0a7</t>
+          <t>https://www.notion.so/671720b396d14d6b9a748d57582dd948</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -9320,7 +9122,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
+          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
         </is>
       </c>
       <c r="AR15" t="b">
@@ -9585,7 +9387,7 @@
       </c>
       <c r="DJ15" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK15" t="inlineStr">
@@ -9619,27 +9421,111 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR15" t="inlineStr"/>
-      <c r="DS15" t="inlineStr"/>
-      <c r="DT15" t="inlineStr"/>
-      <c r="DU15" t="inlineStr"/>
-      <c r="DV15" t="inlineStr"/>
-      <c r="DW15" t="inlineStr"/>
-      <c r="DX15" t="inlineStr"/>
-      <c r="DY15" t="inlineStr"/>
-      <c r="DZ15" t="inlineStr"/>
-      <c r="EA15" t="inlineStr"/>
-      <c r="EB15" t="inlineStr"/>
-      <c r="EC15" t="inlineStr"/>
-      <c r="ED15" t="inlineStr"/>
-      <c r="EE15" t="inlineStr"/>
-      <c r="EF15" t="inlineStr"/>
-      <c r="EG15" t="inlineStr"/>
-      <c r="EH15" t="inlineStr"/>
-      <c r="EI15" t="inlineStr"/>
-      <c r="EJ15" t="inlineStr"/>
-      <c r="EK15" t="inlineStr"/>
-      <c r="EL15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="EM15" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -9655,42 +9541,186 @@
           <t>pink</t>
         </is>
       </c>
-      <c r="EP15" t="inlineStr"/>
-      <c r="EQ15" t="inlineStr"/>
-      <c r="ER15" t="inlineStr"/>
-      <c r="ES15" t="inlineStr"/>
-      <c r="ET15" t="inlineStr"/>
-      <c r="EU15" t="inlineStr"/>
-      <c r="EV15" t="inlineStr"/>
-      <c r="EW15" t="inlineStr"/>
-      <c r="EX15" t="inlineStr"/>
-      <c r="EY15" t="inlineStr"/>
-      <c r="EZ15" t="inlineStr"/>
-      <c r="FA15" t="inlineStr"/>
-      <c r="FB15" t="inlineStr"/>
-      <c r="FC15" t="inlineStr"/>
-      <c r="FD15" t="inlineStr"/>
-      <c r="FE15" t="inlineStr"/>
-      <c r="FF15" t="inlineStr"/>
-      <c r="FG15" t="inlineStr"/>
-      <c r="FH15" t="inlineStr"/>
-      <c r="FI15" t="inlineStr"/>
-      <c r="FJ15" t="inlineStr"/>
-      <c r="FK15" t="inlineStr"/>
-      <c r="FL15" t="inlineStr"/>
-      <c r="FM15" t="inlineStr"/>
-      <c r="FN15" t="inlineStr"/>
-      <c r="FO15" t="inlineStr"/>
-      <c r="FP15" t="inlineStr"/>
-      <c r="FQ15" t="inlineStr"/>
-      <c r="FR15" t="inlineStr"/>
-      <c r="FS15" t="inlineStr"/>
-      <c r="FT15" t="inlineStr"/>
-      <c r="FU15" t="inlineStr"/>
-      <c r="FV15" t="inlineStr"/>
-      <c r="FW15" t="inlineStr"/>
-      <c r="FX15" t="inlineStr"/>
-      <c r="FY15" t="inlineStr"/>
+      <c r="EP15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK15" t="inlineStr">
+        <is>
+          <t>xQp=</t>
+        </is>
+      </c>
+      <c r="FL15" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="FM15" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="FN15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="FZ15" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -9706,12 +9736,51 @@
           <t>pink</t>
         </is>
       </c>
-      <c r="GC15" t="inlineStr"/>
-      <c r="GD15" t="inlineStr"/>
-      <c r="GE15" t="inlineStr"/>
-      <c r="GF15" t="inlineStr"/>
-      <c r="GG15" t="inlineStr"/>
-      <c r="GH15" t="inlineStr"/>
+      <c r="GC15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9721,7 +9790,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ca8f4290-3122-4d53-9521-dad11b15705c</t>
+          <t>b6c770d0-bb31-4e81-9bb1-58097d2fa0a7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9731,7 +9800,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-21T10:38:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -9744,7 +9813,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ca8f429031224d539521dad11b15705c</t>
+          <t>https://www.notion.so/b6c770d0bb314e819bb158097d2fa0a7</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -9765,7 +9834,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -9878,7 +9947,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
+          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
         </is>
       </c>
       <c r="AR16" t="b">
@@ -10198,9 +10267,21 @@
       <c r="EJ16" t="inlineStr"/>
       <c r="EK16" t="inlineStr"/>
       <c r="EL16" t="inlineStr"/>
-      <c r="EM16" t="inlineStr"/>
-      <c r="EN16" t="inlineStr"/>
-      <c r="EO16" t="inlineStr"/>
+      <c r="EM16" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="EP16" t="inlineStr"/>
       <c r="EQ16" t="inlineStr"/>
       <c r="ER16" t="inlineStr"/>
@@ -10240,12 +10321,27 @@
       <c r="FZ16" t="inlineStr"/>
       <c r="GA16" t="inlineStr"/>
       <c r="GB16" t="inlineStr"/>
-      <c r="GC16" t="inlineStr"/>
-      <c r="GD16" t="inlineStr"/>
-      <c r="GE16" t="inlineStr"/>
+      <c r="GC16" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD16" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE16" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="GF16" t="inlineStr"/>
       <c r="GG16" t="inlineStr"/>
       <c r="GH16" t="inlineStr"/>
+      <c r="GI16" t="inlineStr"/>
+      <c r="GJ16" t="inlineStr"/>
+      <c r="GK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10255,7 +10351,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>deb63111-80c7-44a6-8473-e052d5d97945</t>
+          <t>ca8f4290-3122-4d53-9521-dad11b15705c</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -10278,7 +10374,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/deb6311180c744a68473e052d5d97945</t>
+          <t>https://www.notion.so/ca8f429031224d539521dad11b15705c</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -10412,7 +10508,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
+          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
         </is>
       </c>
       <c r="AR17" t="b">
@@ -10677,7 +10773,7 @@
       </c>
       <c r="DJ17" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK17" t="inlineStr">
@@ -10780,6 +10876,9 @@
       <c r="GF17" t="inlineStr"/>
       <c r="GG17" t="inlineStr"/>
       <c r="GH17" t="inlineStr"/>
+      <c r="GI17" t="inlineStr"/>
+      <c r="GJ17" t="inlineStr"/>
+      <c r="GK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10789,7 +10888,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ed3b34cd-1de3-46d7-8e4f-84e80940c393</t>
+          <t>deb63111-80c7-44a6-8473-e052d5d97945</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10799,7 +10898,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-23T09:45:00.000Z</t>
+          <t>2024-07-02T18:02:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -10812,7 +10911,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ed3b34cd1de346d78e4f84e80940c393</t>
+          <t>https://www.notion.so/deb6311180c744a68473e052d5d97945</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -10833,7 +10932,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -10946,7 +11045,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
+          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
         </is>
       </c>
       <c r="AR18" t="b">
@@ -11211,7 +11310,7 @@
       </c>
       <c r="DJ18" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK18" t="inlineStr">
@@ -11245,351 +11344,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU18" t="inlineStr">
-        <is>
-          <t>Evwd</t>
-        </is>
-      </c>
-      <c r="DV18" t="inlineStr">
-        <is>
-          <t>Nửa ngày</t>
-        </is>
-      </c>
-      <c r="DW18" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="DX18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FW18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FX18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FY18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FZ18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="GC18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GD18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GE18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="GF18" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GG18" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GH18" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR18" t="inlineStr"/>
+      <c r="DS18" t="inlineStr"/>
+      <c r="DT18" t="inlineStr"/>
+      <c r="DU18" t="inlineStr"/>
+      <c r="DV18" t="inlineStr"/>
+      <c r="DW18" t="inlineStr"/>
+      <c r="DX18" t="inlineStr"/>
+      <c r="DY18" t="inlineStr"/>
+      <c r="DZ18" t="inlineStr"/>
+      <c r="EA18" t="inlineStr"/>
+      <c r="EB18" t="inlineStr"/>
+      <c r="EC18" t="inlineStr"/>
+      <c r="ED18" t="inlineStr"/>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr"/>
+      <c r="EH18" t="inlineStr"/>
+      <c r="EI18" t="inlineStr"/>
+      <c r="EJ18" t="inlineStr"/>
+      <c r="EK18" t="inlineStr"/>
+      <c r="EL18" t="inlineStr"/>
+      <c r="EM18" t="inlineStr"/>
+      <c r="EN18" t="inlineStr"/>
+      <c r="EO18" t="inlineStr"/>
+      <c r="EP18" t="inlineStr"/>
+      <c r="EQ18" t="inlineStr"/>
+      <c r="ER18" t="inlineStr"/>
+      <c r="ES18" t="inlineStr"/>
+      <c r="ET18" t="inlineStr"/>
+      <c r="EU18" t="inlineStr"/>
+      <c r="EV18" t="inlineStr"/>
+      <c r="EW18" t="inlineStr"/>
+      <c r="EX18" t="inlineStr"/>
+      <c r="EY18" t="inlineStr"/>
+      <c r="EZ18" t="inlineStr"/>
+      <c r="FA18" t="inlineStr"/>
+      <c r="FB18" t="inlineStr"/>
+      <c r="FC18" t="inlineStr"/>
+      <c r="FD18" t="inlineStr"/>
+      <c r="FE18" t="inlineStr"/>
+      <c r="FF18" t="inlineStr"/>
+      <c r="FG18" t="inlineStr"/>
+      <c r="FH18" t="inlineStr"/>
+      <c r="FI18" t="inlineStr"/>
+      <c r="FJ18" t="inlineStr"/>
+      <c r="FK18" t="inlineStr"/>
+      <c r="FL18" t="inlineStr"/>
+      <c r="FM18" t="inlineStr"/>
+      <c r="FN18" t="inlineStr"/>
+      <c r="FO18" t="inlineStr"/>
+      <c r="FP18" t="inlineStr"/>
+      <c r="FQ18" t="inlineStr"/>
+      <c r="FR18" t="inlineStr"/>
+      <c r="FS18" t="inlineStr"/>
+      <c r="FT18" t="inlineStr"/>
+      <c r="FU18" t="inlineStr"/>
+      <c r="FV18" t="inlineStr"/>
+      <c r="FW18" t="inlineStr"/>
+      <c r="FX18" t="inlineStr"/>
+      <c r="FY18" t="inlineStr"/>
+      <c r="FZ18" t="inlineStr"/>
+      <c r="GA18" t="inlineStr"/>
+      <c r="GB18" t="inlineStr"/>
+      <c r="GC18" t="inlineStr"/>
+      <c r="GD18" t="inlineStr"/>
+      <c r="GE18" t="inlineStr"/>
+      <c r="GF18" t="inlineStr"/>
+      <c r="GG18" t="inlineStr"/>
+      <c r="GH18" t="inlineStr"/>
+      <c r="GI18" t="inlineStr"/>
+      <c r="GJ18" t="inlineStr"/>
+      <c r="GK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11599,7 +11425,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000f1b67-a930-45df-a5ea-f1edee6ad917</t>
+          <t>ed3b34cd-1de3-46d7-8e4f-84e80940c393</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -11609,7 +11435,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-23T09:45:00.000Z</t>
+          <t>2024-07-24T10:30:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -11622,7 +11448,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/000f1b67a93045dfa5eaf1edee6ad917</t>
+          <t>https://www.notion.so/ed3b34cd1de346d78e4f84e80940c393</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -11756,7 +11582,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
         </is>
       </c>
       <c r="AR19" t="b">
@@ -12072,330 +11898,345 @@
       </c>
       <c r="DU19" t="inlineStr">
         <is>
+          <t>Evwd</t>
+        </is>
+      </c>
+      <c r="DV19" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="DW19" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="DX19" t="inlineStr">
+        <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DV19" t="inlineStr">
+      <c r="DY19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DW19" t="inlineStr">
+      <c r="DZ19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="DX19" t="inlineStr">
+      <c r="EA19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DY19" t="inlineStr">
+      <c r="EB19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DZ19" t="inlineStr">
+      <c r="EC19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EA19" t="inlineStr">
+      <c r="ED19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EB19" t="inlineStr">
+      <c r="EE19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EC19" t="inlineStr">
+      <c r="EF19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="ED19" t="inlineStr">
+      <c r="EG19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EE19" t="inlineStr">
+      <c r="EH19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EF19" t="inlineStr">
+      <c r="EI19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EG19" t="inlineStr">
+      <c r="EJ19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EH19" t="inlineStr">
+      <c r="EK19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EI19" t="inlineStr">
+      <c r="EL19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EJ19" t="inlineStr">
+      <c r="EM19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EK19" t="inlineStr">
+      <c r="EN19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EL19" t="inlineStr">
+      <c r="EO19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EM19" t="inlineStr">
+      <c r="EP19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EN19" t="inlineStr">
+      <c r="EQ19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EO19" t="inlineStr">
+      <c r="ER19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EP19" t="inlineStr">
+      <c r="ES19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EQ19" t="inlineStr">
+      <c r="ET19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="ER19" t="inlineStr">
+      <c r="EU19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="ES19" t="inlineStr">
+      <c r="EV19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="ET19" t="inlineStr">
+      <c r="EW19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EU19" t="inlineStr">
+      <c r="EX19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EV19" t="inlineStr">
+      <c r="EY19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EW19" t="inlineStr">
+      <c r="EZ19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EX19" t="inlineStr">
+      <c r="FA19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EY19" t="inlineStr">
+      <c r="FB19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EZ19" t="inlineStr">
+      <c r="FC19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FA19" t="inlineStr">
+      <c r="FD19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FB19" t="inlineStr">
+      <c r="FE19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FC19" t="inlineStr">
+      <c r="FF19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FD19" t="inlineStr">
+      <c r="FG19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FE19" t="inlineStr">
+      <c r="FH19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FF19" t="inlineStr">
+      <c r="FI19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FG19" t="inlineStr">
+      <c r="FJ19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FH19" t="inlineStr">
+      <c r="FK19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI19" t="inlineStr">
+      <c r="FL19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ19" t="inlineStr">
+      <c r="FM19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK19" t="inlineStr">
+      <c r="FN19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FL19" t="inlineStr">
+      <c r="FO19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FM19" t="inlineStr">
+      <c r="FP19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FN19" t="inlineStr">
+      <c r="FQ19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO19" t="inlineStr">
+      <c r="FR19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP19" t="inlineStr">
+      <c r="FS19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FQ19" t="inlineStr">
+      <c r="FT19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FR19" t="inlineStr">
+      <c r="FU19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FS19" t="inlineStr">
+      <c r="FV19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FT19" t="inlineStr">
+      <c r="FW19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FU19" t="inlineStr">
+      <c r="FX19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FV19" t="inlineStr">
+      <c r="FY19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FW19" t="inlineStr">
+      <c r="FZ19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FX19" t="inlineStr">
+      <c r="GA19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FY19" t="inlineStr">
+      <c r="GB19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FZ19" t="inlineStr">
+      <c r="GC19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="GA19" t="inlineStr">
+      <c r="GD19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="GB19" t="inlineStr">
+      <c r="GE19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="GC19" t="inlineStr">
+      <c r="GF19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="GD19" t="inlineStr">
+      <c r="GG19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="GE19" t="inlineStr">
+      <c r="GH19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="GF19" t="inlineStr">
+      <c r="GI19" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="GG19" t="inlineStr">
+      <c r="GJ19" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="GH19" t="inlineStr">
+      <c r="GK19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -12409,7 +12250,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>428f3abc-4f6b-4216-9986-10e2cc632bc3</t>
+          <t>000f1b67-a930-45df-a5ea-f1edee6ad917</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12419,7 +12260,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-24T10:30:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -12432,7 +12273,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/428f3abc4f6b4216998610e2cc632bc3</t>
+          <t>https://www.notion.so/000f1b67a93045dfa5eaf1edee6ad917</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -12453,7 +12294,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -12566,7 +12407,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
+          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
         </is>
       </c>
       <c r="AR20" t="b">
@@ -12831,7 +12672,7 @@
       </c>
       <c r="DJ20" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK20" t="inlineStr">
@@ -12865,75 +12706,366 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR20" t="inlineStr"/>
-      <c r="DS20" t="inlineStr"/>
-      <c r="DT20" t="inlineStr"/>
-      <c r="DU20" t="inlineStr"/>
-      <c r="DV20" t="inlineStr"/>
-      <c r="DW20" t="inlineStr"/>
-      <c r="DX20" t="inlineStr"/>
-      <c r="DY20" t="inlineStr"/>
-      <c r="DZ20" t="inlineStr"/>
-      <c r="EA20" t="inlineStr"/>
-      <c r="EB20" t="inlineStr"/>
-      <c r="EC20" t="inlineStr"/>
-      <c r="ED20" t="inlineStr"/>
-      <c r="EE20" t="inlineStr"/>
-      <c r="EF20" t="inlineStr"/>
-      <c r="EG20" t="inlineStr"/>
-      <c r="EH20" t="inlineStr"/>
-      <c r="EI20" t="inlineStr"/>
-      <c r="EJ20" t="inlineStr"/>
-      <c r="EK20" t="inlineStr"/>
-      <c r="EL20" t="inlineStr"/>
-      <c r="EM20" t="inlineStr"/>
-      <c r="EN20" t="inlineStr"/>
-      <c r="EO20" t="inlineStr"/>
-      <c r="EP20" t="inlineStr"/>
-      <c r="EQ20" t="inlineStr"/>
-      <c r="ER20" t="inlineStr"/>
-      <c r="ES20" t="inlineStr"/>
-      <c r="ET20" t="inlineStr"/>
-      <c r="EU20" t="inlineStr"/>
-      <c r="EV20" t="inlineStr"/>
-      <c r="EW20" t="inlineStr"/>
-      <c r="EX20" t="inlineStr"/>
-      <c r="EY20" t="inlineStr"/>
-      <c r="EZ20" t="inlineStr"/>
-      <c r="FA20" t="inlineStr"/>
-      <c r="FB20" t="inlineStr"/>
-      <c r="FC20" t="inlineStr"/>
-      <c r="FD20" t="inlineStr"/>
-      <c r="FE20" t="inlineStr"/>
-      <c r="FF20" t="inlineStr"/>
-      <c r="FG20" t="inlineStr"/>
-      <c r="FH20" t="inlineStr"/>
-      <c r="FI20" t="inlineStr"/>
-      <c r="FJ20" t="inlineStr"/>
-      <c r="FK20" t="inlineStr"/>
-      <c r="FL20" t="inlineStr"/>
-      <c r="FM20" t="inlineStr"/>
-      <c r="FN20" t="inlineStr"/>
-      <c r="FO20" t="inlineStr"/>
-      <c r="FP20" t="inlineStr"/>
-      <c r="FQ20" t="inlineStr"/>
-      <c r="FR20" t="inlineStr"/>
-      <c r="FS20" t="inlineStr"/>
-      <c r="FT20" t="inlineStr"/>
-      <c r="FU20" t="inlineStr"/>
-      <c r="FV20" t="inlineStr"/>
-      <c r="FW20" t="inlineStr"/>
-      <c r="FX20" t="inlineStr"/>
-      <c r="FY20" t="inlineStr"/>
-      <c r="FZ20" t="inlineStr"/>
-      <c r="GA20" t="inlineStr"/>
-      <c r="GB20" t="inlineStr"/>
-      <c r="GC20" t="inlineStr"/>
-      <c r="GD20" t="inlineStr"/>
-      <c r="GE20" t="inlineStr"/>
-      <c r="GF20" t="inlineStr"/>
-      <c r="GG20" t="inlineStr"/>
-      <c r="GH20" t="inlineStr"/>
+      <c r="DR20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI20" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ20" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK20" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12943,7 +13075,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>c7fc0a04-87a3-456b-b158-678fcd016f12</t>
+          <t>428f3abc-4f6b-4216-9986-10e2cc632bc3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12953,7 +13085,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-06T09:59:00.000Z</t>
+          <t>2024-07-02T18:02:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -12966,7 +13098,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/c7fc0a0487a3456bb158678fcd016f12</t>
+          <t>https://www.notion.so/428f3abc4f6b4216998610e2cc632bc3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -13100,7 +13232,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
+          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
         </is>
       </c>
       <c r="AR21" t="b">
@@ -13468,6 +13600,546 @@
       <c r="GF21" t="inlineStr"/>
       <c r="GG21" t="inlineStr"/>
       <c r="GH21" t="inlineStr"/>
+      <c r="GI21" t="inlineStr"/>
+      <c r="GJ21" t="inlineStr"/>
+      <c r="GK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c7fc0a04-87a3-456b-b158-678fcd016f12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-07-06T09:59:00.000Z</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/c7fc0a0487a3456bb158678fcd016f12</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>7a9c3003-7d16-4eaf-a09d-a55aafacde5e</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
+        </is>
+      </c>
+      <c r="AR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr"/>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+        </is>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN22" t="inlineStr"/>
+      <c r="DO22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR22" t="inlineStr"/>
+      <c r="DS22" t="inlineStr"/>
+      <c r="DT22" t="inlineStr"/>
+      <c r="DU22" t="inlineStr"/>
+      <c r="DV22" t="inlineStr"/>
+      <c r="DW22" t="inlineStr"/>
+      <c r="DX22" t="inlineStr"/>
+      <c r="DY22" t="inlineStr"/>
+      <c r="DZ22" t="inlineStr"/>
+      <c r="EA22" t="inlineStr"/>
+      <c r="EB22" t="inlineStr"/>
+      <c r="EC22" t="inlineStr"/>
+      <c r="ED22" t="inlineStr"/>
+      <c r="EE22" t="inlineStr"/>
+      <c r="EF22" t="inlineStr"/>
+      <c r="EG22" t="inlineStr"/>
+      <c r="EH22" t="inlineStr"/>
+      <c r="EI22" t="inlineStr"/>
+      <c r="EJ22" t="inlineStr"/>
+      <c r="EK22" t="inlineStr"/>
+      <c r="EL22" t="inlineStr"/>
+      <c r="EM22" t="inlineStr"/>
+      <c r="EN22" t="inlineStr"/>
+      <c r="EO22" t="inlineStr"/>
+      <c r="EP22" t="inlineStr"/>
+      <c r="EQ22" t="inlineStr"/>
+      <c r="ER22" t="inlineStr"/>
+      <c r="ES22" t="inlineStr"/>
+      <c r="ET22" t="inlineStr"/>
+      <c r="EU22" t="inlineStr"/>
+      <c r="EV22" t="inlineStr"/>
+      <c r="EW22" t="inlineStr"/>
+      <c r="EX22" t="inlineStr"/>
+      <c r="EY22" t="inlineStr"/>
+      <c r="EZ22" t="inlineStr"/>
+      <c r="FA22" t="inlineStr"/>
+      <c r="FB22" t="inlineStr"/>
+      <c r="FC22" t="inlineStr"/>
+      <c r="FD22" t="inlineStr"/>
+      <c r="FE22" t="inlineStr"/>
+      <c r="FF22" t="inlineStr"/>
+      <c r="FG22" t="inlineStr"/>
+      <c r="FH22" t="inlineStr"/>
+      <c r="FI22" t="inlineStr"/>
+      <c r="FJ22" t="inlineStr"/>
+      <c r="FK22" t="inlineStr"/>
+      <c r="FL22" t="inlineStr"/>
+      <c r="FM22" t="inlineStr"/>
+      <c r="FN22" t="inlineStr"/>
+      <c r="FO22" t="inlineStr"/>
+      <c r="FP22" t="inlineStr"/>
+      <c r="FQ22" t="inlineStr"/>
+      <c r="FR22" t="inlineStr"/>
+      <c r="FS22" t="inlineStr"/>
+      <c r="FT22" t="inlineStr"/>
+      <c r="FU22" t="inlineStr"/>
+      <c r="FV22" t="inlineStr"/>
+      <c r="FW22" t="inlineStr"/>
+      <c r="FX22" t="inlineStr"/>
+      <c r="FY22" t="inlineStr"/>
+      <c r="FZ22" t="inlineStr"/>
+      <c r="GA22" t="inlineStr"/>
+      <c r="GB22" t="inlineStr"/>
+      <c r="GC22" t="inlineStr"/>
+      <c r="GD22" t="inlineStr"/>
+      <c r="GE22" t="inlineStr"/>
+      <c r="GF22" t="inlineStr"/>
+      <c r="GG22" t="inlineStr"/>
+      <c r="GH22" t="inlineStr"/>
+      <c r="GI22" t="inlineStr"/>
+      <c r="GJ22" t="inlineStr"/>
+      <c r="GK22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
